--- a/biology/Botanique/Dicksoniaceae/Dicksoniaceae.xlsx
+++ b/biology/Botanique/Dicksoniaceae/Dicksoniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dicksoniaceae forment une famille de fougères arborescentes des régions tropicales, subtropicales et tempérées. Les espèces de cette famille sont généralement considérées comme plus primitives que celle de la famille des Cyatheaceae. Plusieurs taxons datant du début du Jurassique sont connus.
 La plupart des espèces de cette famille ont un tronc plus court que celles de la famille des Cyatheaceae. Toutefois, les plus grandes espèces peuvent atteindre plusieurs mètres de hauteur. Un certain nombre d'autres sont épiphytes. On les trouve principalement dans les régions tropicales de l'hémisphère Sud, jusqu'au sud de la Nouvelle-Zélande.
@@ -515,17 +527,92 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Taxonomie
-Le nom de la famille est issue du nom du genre Dicksonia, nommé en l'honneur de James Dickson, est un botaniste et pépiniériste.
-Évolution
-On pense que la famille est née au Crétacé inférieur, sur la base de preuves moléculaires. Lophosoria est connue à partir de spores fossiles et de fragments de feuilles d'Amérique du Sud datant de l'Aptien. Le plus ancien fossile de Dicksonia est connu de l'Éocène de l'Antarctique[1]. Le genre de fougère herbacée très répandu du Jurassique-Crétacé Coniopteris a historiquement été attribué à cette famille, mais l'analyse cladistique suggère qu'il est plus étroitement lié aux Polypodiales[2].
-Systématique
-Trois genres sont reconnus dans cette famille monophylétique :
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille est issue du nom du genre Dicksonia, nommé en l'honneur de James Dickson, est un botaniste et pépiniériste.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dicksoniaceae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dicksoniaceae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination et systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Évolution</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On pense que la famille est née au Crétacé inférieur, sur la base de preuves moléculaires. Lophosoria est connue à partir de spores fossiles et de fragments de feuilles d'Amérique du Sud datant de l'Aptien. Le plus ancien fossile de Dicksonia est connu de l'Éocène de l'Antarctique. Le genre de fougère herbacée très répandu du Jurassique-Crétacé Coniopteris a historiquement été attribué à cette famille, mais l'analyse cladistique suggère qu'il est plus étroitement lié aux Polypodiales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dicksoniaceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dicksoniaceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination et systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Trois genres sont reconnus dans cette famille monophylétique :
 Calochlaena
 Dicksonia
 Lophosoria
-Relations des trois genres vivants, d'après[1].
-Certains auteurs y placent le genre Cibotium [3],[4]. Cependant, d'autres le rangent dans la famille des Cibotiaceae.
+Relations des trois genres vivants, d'après.
+Certains auteurs y placent le genre Cibotium ,. Cependant, d'autres le rangent dans la famille des Cibotiaceae.
 On y accepte également plusieurs genres fossiles :
 †Conantiopteris
 †Coniopteris
